--- a/ObjectRepoitory.xlsx
+++ b/ObjectRepoitory.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jines\learnJava\seleniumPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BF500-2945-410F-BB72-74FB6016597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815557E-0126-42FD-AA03-DE96648711CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="840" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{F4E78BEE-D4C3-4F4E-8A2C-949F6F007CD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4E78BEE-D4C3-4F4E-8A2C-949F6F007CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,79 +142,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE1A4AB-13F9-41E3-BD34-B26ADE38F8C8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02455524-E7C0-4D6B-9CDA-7D09C809CD09}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -586,45 +512,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C250793-3522-472F-93C9-43C5CE7C2D5D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Paint.Picture" shapeId="2049" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>21</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Paint.Picture" shapeId="2049" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
 </file>
--- a/ObjectRepoitory.xlsx
+++ b/ObjectRepoitory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jines\learnJava\seleniumPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815557E-0126-42FD-AA03-DE96648711CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2443C59-3FF0-4144-8261-66AC2A1575D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4E78BEE-D4C3-4F4E-8A2C-949F6F007CD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Object</t>
   </si>
@@ -73,6 +73,72 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>HomePage_Find_Patient_Button</t>
+  </si>
+  <si>
+    <t>coreapps-activeVisitsHomepageLink-coreapps-activeVisitsHomepageLink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_ActiveVisits_Button</t>
+  </si>
+  <si>
+    <t>org-openmrs-module-coreapps-activeVisitsHomepageLink-org-openmrs-module-coreapps-activeVisitsHomepageLink-extension</t>
+  </si>
+  <si>
+    <t>referenceapplication-registrationapp-registerPatient-homepageLink-referenceapplication-registrationapp-registerPatient-homepageLink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_Register_Patient_Button</t>
+  </si>
+  <si>
+    <t>referenceapplication-vitals-referenceapplication-vitals-extension</t>
+  </si>
+  <si>
+    <t>HomePage_CaptureVitals_Button</t>
+  </si>
+  <si>
+    <t>appointmentschedulingui-homeAppLink-appointmentschedulingui-homeAppLink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_FAppointmentScheduling_Button</t>
+  </si>
+  <si>
+    <t>reportingui-reports-homepagelink-reportingui-reports-homepagelink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_Reporting_Button</t>
+  </si>
+  <si>
+    <t>coreapps-datamanagement-homepageLink-coreapps-datamanagement-homepageLink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_DataManagement_Button</t>
+  </si>
+  <si>
+    <t>org-openmrs-module-adminui-configuremetadata-homepageLink-org-openmrs-module-adminui-configuremetadata-homepageLink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_ConfigreMetaData_Button</t>
+  </si>
+  <si>
+    <t>coreapps-systemadministration-homepageLink-coreapps-systemadministration-homepageLink-extension</t>
+  </si>
+  <si>
+    <t>HomePage_SyatemAdministration_Button</t>
+  </si>
+  <si>
+    <t>FindPatient_Search_textbox</t>
+  </si>
+  <si>
+    <t>patient-search</t>
+  </si>
+  <si>
+    <t>RegisterPatient_GivenName_textbox</t>
+  </si>
+  <si>
+    <t>givenName</t>
   </si>
 </sst>
 </file>
@@ -123,10 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,23 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02455524-E7C0-4D6B-9CDA-7D09C809CD09}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -468,7 +540,7 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -479,7 +551,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -490,7 +562,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -501,11 +573,132 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
